--- a/Data/EC/NIT-9000327389.xlsx
+++ b/Data/EC/NIT-9000327389.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A95AC4E-12BD-428F-ACFE-6D7867CB9505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90AA262-6385-4E60-85CE-6828F34EF9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58633AEE-107D-4C94-8663-93C88B40B941}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43FC4FBA-1A98-4E6C-9894-C5625E6738CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>ADRIANA CHAVEZ GARCIA</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3737C1B-B5B4-003A-4149-2E3034FC73DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B00EC8-8655-EC4A-72AD-F434A7257A00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38987B0B-B048-460D-ADC5-C01C3A4E7AB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF333C8-867A-419B-AC83-5F036B36B6B3}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="24">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="24">
         <v>908526</v>

--- a/Data/EC/NIT-9000327389.xlsx
+++ b/Data/EC/NIT-9000327389.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F90AA262-6385-4E60-85CE-6828F34EF9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D6D044-1E23-44E1-B040-2C7111E8F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43FC4FBA-1A98-4E6C-9894-C5625E6738CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DFEF875A-EFA7-4CAF-B903-B554C10745AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>ADRIANA CHAVEZ GARCIA</t>
   </si>
   <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +200,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B00EC8-8655-EC4A-72AD-F434A7257A00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2810F7F3-664E-D8FB-132F-18CAFA1C8148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF333C8-867A-419B-AC83-5F036B36B6B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E537D8-33B0-486D-AA54-4BE5E384F20B}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31495</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="24">
-        <v>36341</v>
+        <v>31495</v>
       </c>
       <c r="G26" s="24">
         <v>908526</v>
